--- a/STIW3054_A1/Trivia.xlsx
+++ b/STIW3054_A1/Trivia.xlsx
@@ -181,7 +181,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <sz val="14.0"/>
       <b val="true"/>
       <color indexed="12"/>
@@ -209,7 +209,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -222,7 +224,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="4.69140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.0390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="43.1328125" customWidth="true" bestFit="true"/>
   </cols>
